--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440621.5385695738</v>
+        <v>437339.8706939355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5669319.084475418</v>
+        <v>5669319.084475419</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>102.3382270926889</v>
-      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>32.94517566205834</v>
       </c>
     </row>
     <row r="7">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1154,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,13 +1221,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>200.8531994405235</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,61 +1379,61 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>145.4467082856156</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1610,70 +1610,70 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,25 +1689,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>145.4467082856156</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1850,58 +1850,58 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1977,13 +1977,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,61 +2090,61 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>159.3030160622171</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>181.9538569390774</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2245,52 +2245,52 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,16 +2330,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2457,13 +2457,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>98.92381696846063</v>
       </c>
       <c r="I26" t="n">
-        <v>68.3854176612075</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>40.61938961819902</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>98.22847700514947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>74.0428859370281</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2931,10 +2931,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3041,16 +3041,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,25 +3071,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,19 +3108,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>8.862430619821945</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>217.878431761042</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>26.92846591669594</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>135.4141600157168</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,73 +3503,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>56.14966203181769</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,73 +3740,73 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>46.01752716430177</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3879,7 +3879,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3916,37 +3916,37 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,64 +3986,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>190.3453970742848</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>23.17871577922039</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E5" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F5" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C5" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D5" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E5" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F5" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>262.7299197543128</v>
@@ -4607,10 +4607,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>762.5638632763679</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4689,7 +4689,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>930.7792002964359</v>
       </c>
     </row>
     <row r="7">
@@ -4787,19 +4787,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4884,7 +4884,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
         <v>304.2053859195205</v>
@@ -4893,7 +4893,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4926,7 +4926,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.1751358737438</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>817.1412885554689</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V15" t="n">
-        <v>817.1412885554689</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,19 +5598,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5625,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D19" t="n">
         <v>19.28114311021272</v>
@@ -5689,34 +5689,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339.4307355522512</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X21" t="n">
-        <v>547.1910343172051</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.4307355522512</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5938,22 +5938,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C23" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D23" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E23" t="n">
-        <v>518.2486856454962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,22 +6093,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6209,16 +6209,16 @@
         <v>343.8760884571613</v>
       </c>
       <c r="E26" t="n">
-        <v>100.4273118130612</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F26" t="n">
-        <v>100.4273118130612</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G26" t="n">
-        <v>100.4273118130612</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="H26" t="n">
-        <v>100.4273118130612</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
         <v>31.35113235729608</v>
@@ -6260,13 +6260,13 @@
         <v>587.3248651012614</v>
       </c>
       <c r="V26" t="n">
-        <v>343.8760884571613</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W26" t="n">
-        <v>343.8760884571613</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8760884571613</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y26" t="n">
         <v>343.8760884571613</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.0119685275972</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C27" t="n">
-        <v>158.0119685275972</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0119685275972</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>158.0119685275972</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="28">
@@ -6415,10 +6415,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D29" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F29" t="n">
         <v>274.7999090013961</v>
       </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="E29" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="F29" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="G29" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
         <v>31.35113235729608</v>
@@ -6503,10 +6503,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>934.7112791079849</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>706.487660844374</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>471.3355526126313</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>227.8867759685313</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X30" t="n">
-        <v>20.03527576299844</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="31">
@@ -6643,13 +6643,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.424473941237</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C33" t="n">
-        <v>613.4725238202047</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D33" t="n">
-        <v>464.5381141589534</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>305.3006591534979</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,10 +6786,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>541.7913368683496</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>541.7913368683496</v>
       </c>
       <c r="X33" t="n">
-        <v>790.6398109613051</v>
+        <v>541.7913368683496</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.6398109613051</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="T35" t="n">
+      <c r="W35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U35" t="n">
+      <c r="X35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X35" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>936.856684887711</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>936.856684887711</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>936.856684887711</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>936.856684887711</v>
       </c>
       <c r="V36" t="n">
-        <v>399.5118995681682</v>
+        <v>936.856684887711</v>
       </c>
       <c r="W36" t="n">
-        <v>156.0631229240681</v>
+        <v>693.407908243611</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>485.5564080380782</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
         <v>542.809531908403</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C41" t="n">
         <v>506.1786963984129</v>
@@ -7394,10 +7394,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7494,10 +7494,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7515,25 +7515,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999109</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V42" t="n">
-        <v>399.5118995681682</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W42" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7594,25 +7594,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>518.2486856454962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>274.7999090013961</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>274.7999090013961</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.7999090013961</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.6502787026334</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7731,46 +7731,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>839.4747818420872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>839.4747818420872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>611.2511635784762</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>376.0990553467335</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>132.6502787026334</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>132.6502787026334</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.6502787026334</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8067,7 +8067,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,10 +9246,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,7 +9723,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10674,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11388,13 +11388,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,13 +22790,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22875,13 +22875,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>172.737520115246</v>
       </c>
     </row>
     <row r="7">
@@ -23027,10 +23027,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23109,13 +23109,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>4.829496336780863</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23315,13 +23315,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,25 +23340,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,19 +23385,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>106.248274875304</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23498,25 +23498,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E14" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23577,25 +23577,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,19 +23622,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>80.4946737953592</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23865,13 +23865,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>104.3119894196452</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23929,10 +23929,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,13 +23978,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,19 +24020,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,13 +24048,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>13.40548292609861</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>43.98752514189746</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,16 +24218,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24333,10 +24333,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24345,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,10 +24458,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>240.5509851473065</v>
       </c>
       <c r="I26" t="n">
-        <v>142.0904719091984</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>125.9137940316683</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>107.4542187721549</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24655,13 +24655,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>63.30063122618253</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>71.10541651401829</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,10 +24819,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,16 +24929,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,25 +24959,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,19 +24996,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>163.8460683684938</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,16 +25044,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>14.92215538838323</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25129,13 +25129,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25251,7 +25251,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>73.22936823594719</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,19 +25287,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>70.35882518776063</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,16 +25391,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25467,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>91.29540353282107</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25606,10 +25606,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,19 +25628,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,7 +25685,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25722,10 +25722,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>66.21791707219469</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25755,10 +25755,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25804,7 +25804,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,19 +25874,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>137.4068613958501</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>148.5044553246174</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,7 +26007,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575747</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575747</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="C2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="E2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="F2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="G2" t="n">
         <v>108004.4371453661</v>
       </c>
-      <c r="C2" t="n">
-        <v>108004.4371453661</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108004.4371453661</v>
-      </c>
-      <c r="E2" t="n">
-        <v>108004.4371453661</v>
-      </c>
-      <c r="F2" t="n">
-        <v>108004.4371453661</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="H2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37568.72254537862</v>
+        <v>-37960.95279092422</v>
       </c>
       <c r="C6" t="n">
-        <v>43200.7089861691</v>
+        <v>42808.47874062354</v>
       </c>
       <c r="D6" t="n">
-        <v>43200.7089861691</v>
+        <v>42808.47874062354</v>
       </c>
       <c r="E6" t="n">
-        <v>76828.3089861691</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="F6" t="n">
-        <v>76828.3089861691</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="G6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="H6" t="n">
-        <v>76828.3089861691</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="I6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="J6" t="n">
-        <v>13768.36638706286</v>
+        <v>13376.13614151731</v>
       </c>
       <c r="K6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="L6" t="n">
-        <v>76828.3089861691</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="M6" t="n">
-        <v>76828.30898616905</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="N6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="O6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="P6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062353</v>
       </c>
     </row>
   </sheetData>
@@ -34787,7 +34787,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,7 +36443,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37154,13 +37154,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37394,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38108,13 +38108,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437339.8706939355</v>
+        <v>439044.6267082024</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -896,67 +898,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -987,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>32.94517566205834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,19 +1223,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>200.8531994405235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>39.77286532336502</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>8.583694061601907</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.19305615617957</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1944,7 +1946,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,10 +1976,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>179.4424403754322</v>
       </c>
       <c r="U18" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2005,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
     </row>
     <row r="20">
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2169,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>118.0823656652538</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2208,22 +2210,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>181.9538569390774</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>202.2946864288972</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>146.2327036023024</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2457,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>98.92381696846063</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40.61938961819902</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>69.03881051849282</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,64 +2797,64 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>74.0428859370281</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>23.63437501744373</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>74.78947726328603</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>217.878431761042</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,13 +3283,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.92846591669594</v>
+        <v>89.75066576371111</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>212.285385643442</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3585,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>148.497753323051</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3879,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.46697834767995</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4119,7 +4121,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>33.19332575419072</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.32787816303323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>325.7766548071333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.32787816303323</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4415,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>762.5638632763679</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C6" t="n">
-        <v>588.1108339952409</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D6" t="n">
-        <v>439.1764243339896</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E6" t="n">
-        <v>279.9389693285341</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4659,10 +4661,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4689,7 +4691,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>930.7792002964359</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4741,10 +4743,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4790,16 +4792,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>592.9597988536757</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>418.5067695725487</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>269.5723599112974</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4926,7 +4928,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>761.1751358737438</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>923.8825440728938</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>712.7511606524439</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V11" t="n">
-        <v>559.1338160830064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W11" t="n">
-        <v>315.6850394389064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
         <v>136.0777814360265</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5306,22 +5308,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5361,10 +5363,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
         <v>473.4149733950735</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
         <v>136.0777814360265</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5534,19 +5536,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5603,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="U18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="V18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="W18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
         <v>19.28114311021272</v>
@@ -5716,7 +5718,7 @@
         <v>64.03213664411894</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5771,13 +5773,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
         <v>749.627473042513</v>
@@ -5786,13 +5788,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X20" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W20" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X20" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
         <v>262.7299197543128</v>
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>679.0958513775852</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>679.0958513775852</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>435.6470747334852</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>227.7955745279523</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="22">
@@ -5932,10 +5934,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C23" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D23" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E23" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>816.3473538921489</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>588.123735628538</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="25">
@@ -6175,16 +6177,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
         <v>829.5248650203655</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8760884571613</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8760884571613</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>343.8760884571613</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>587.3248651012614</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>587.3248651012614</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8760884571613</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>894.3209832697344</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>894.3209832697344</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>894.3209832697344</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>666.0973650061235</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6415,19 +6417,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>298.4948343740486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>298.4948343740486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>298.4948343740486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>298.4948343740486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>298.4948343740486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>839.0145199852959</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>839.0145199852959</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>839.0145199852959</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="W30" t="n">
-        <v>298.4948343740486</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X30" t="n">
-        <v>298.4948343740486</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y30" t="n">
-        <v>298.4948343740486</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6643,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>888.5122289820645</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>686.3256343408306</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>458.1020160772196</v>
       </c>
       <c r="V33" t="n">
-        <v>541.7913368683496</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="W33" t="n">
-        <v>541.7913368683496</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X33" t="n">
-        <v>541.7913368683496</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.0310381033958</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.5807722530562</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
         <v>656.0584510084244</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>936.856684887711</v>
+        <v>873.3999173654735</v>
       </c>
       <c r="S36" t="n">
-        <v>936.856684887711</v>
+        <v>699.9825728161424</v>
       </c>
       <c r="T36" t="n">
-        <v>936.856684887711</v>
+        <v>497.7959781749084</v>
       </c>
       <c r="U36" t="n">
-        <v>936.856684887711</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="V36" t="n">
-        <v>936.856684887711</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="W36" t="n">
-        <v>693.407908243611</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="X36" t="n">
-        <v>485.5564080380782</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="Y36" t="n">
-        <v>277.7961092731243</v>
+        <v>269.5723599112974</v>
       </c>
     </row>
     <row r="37">
@@ -7075,19 +7077,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7216,10 @@
         <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y38" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>170.0330063923429</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9674160535941</v>
       </c>
     </row>
     <row r="40">
@@ -7351,19 +7353,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
         <v>829.5248650203655</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7451,10 +7453,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7500,37 +7502,37 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
         <v>19.28114311021272</v>
@@ -7594,10 +7596,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7675,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.38115216564972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7767,10 +7769,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.38115216564972</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -11148,7 +11150,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22604,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22784,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22835,16 +22837,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>140.9771323296006</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22875,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>172.737520115246</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23042,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23109,19 +23111,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23166,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.829496336780863</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>110.0962526177847</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>317.3055321907214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,19 +23387,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23546,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>103.6517501748946</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23622,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23832,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>20.72228831938943</v>
       </c>
       <c r="U18" t="n">
-        <v>102.3410493332383</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23893,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>104.3119894196452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>174.2811697535276</v>
       </c>
     </row>
     <row r="20">
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24057,16 +24059,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>26.98684672813006</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>43.98752514189746</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>8.181203141508689</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>53.93202509251918</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>240.5509851473065</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>125.9137940316683</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>31.11902363415031</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,25 +24685,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>63.30063122618253</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>148.0487960863941</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24853,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24917,19 +24919,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,16 +25046,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>96.89369384055179</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>14.92215538838323</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,13 +25171,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25256,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>73.22936823594719</v>
+        <v>10.40716838893202</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25388,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25454,7 +25456,7 @@
         <v>136.955583073971</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25473,10 +25475,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>9.147327132349943</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,22 +25520,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25591,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>182.397745374651</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25834,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>158.5530912385654</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26007,7 +26009,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>172.5796594492867</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490293.0738575747</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575747</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="F2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="D4" t="n">
         <v>16914.68964098084</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37960.95279092422</v>
+        <v>-37960.95279092416</v>
       </c>
       <c r="C6" t="n">
-        <v>42808.47874062354</v>
+        <v>42808.47874062355</v>
       </c>
       <c r="D6" t="n">
-        <v>42808.47874062354</v>
+        <v>42808.47874062355</v>
       </c>
       <c r="E6" t="n">
+        <v>76436.07874062358</v>
+      </c>
+      <c r="F6" t="n">
+        <v>76436.07874062353</v>
+      </c>
+      <c r="G6" t="n">
         <v>76436.07874062352</v>
-      </c>
-      <c r="F6" t="n">
-        <v>76436.07874062352</v>
-      </c>
-      <c r="G6" t="n">
-        <v>76436.07874062355</v>
       </c>
       <c r="H6" t="n">
         <v>76436.07874062353</v>
@@ -26543,10 +26545,10 @@
         <v>76436.07874062352</v>
       </c>
       <c r="J6" t="n">
-        <v>13376.13614151731</v>
+        <v>13376.1361415173</v>
       </c>
       <c r="K6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="L6" t="n">
         <v>76436.07874062356</v>
@@ -26555,13 +26557,13 @@
         <v>76436.07874062352</v>
       </c>
       <c r="N6" t="n">
+        <v>76436.0787406235</v>
+      </c>
+      <c r="O6" t="n">
         <v>76436.07874062352</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>76436.0787406235</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76436.07874062353</v>
       </c>
     </row>
   </sheetData>
@@ -34781,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37868,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
